--- a/preAuth_data.xlsx
+++ b/preAuth_data.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Query1!$A$1:$K$3111</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -558,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3086" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1533" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3115" sqref="H3115"/>
     </sheetView>
   </sheetViews>
